--- a/data/trans_camb/P1414-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1414-Dificultad-trans_camb.xlsx
@@ -624,7 +624,7 @@
         <v>1.379708839563915</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.410166746604453</v>
+        <v>2.410166746604452</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08746680500589719</v>
+        <v>0.1563259974278319</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1825549044131348</v>
+        <v>0.2487564871081639</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3221086960928431</v>
+        <v>0.2197336034224848</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.125053688267008</v>
+        <v>1.255753831778038</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3509074133364185</v>
+        <v>0.3595652046489544</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.222056502435316</v>
+        <v>1.318815606139685</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.148125815777032</v>
+        <v>1.194209012036895</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.14893287524677</v>
+        <v>2.196838615082019</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.803405669436287</v>
+        <v>3.756570462672805</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.375179588451052</v>
+        <v>5.411203379670463</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.399459530119814</v>
+        <v>2.387466511628423</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.74549817109033</v>
+        <v>3.642062267015965</v>
       </c>
     </row>
     <row r="7">
@@ -702,7 +702,7 @@
         <v>0.6654356324231566</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.16242701886212</v>
+        <v>1.162427018862119</v>
       </c>
     </row>
     <row r="8">
@@ -715,16 +715,16 @@
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="n">
-        <v>0.06667027849092709</v>
+        <v>0.04054742584340203</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2056376123559287</v>
+        <v>0.2555091801837308</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1222302090522775</v>
+        <v>0.1171320022941689</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.466017653411864</v>
+        <v>0.4882595401604634</v>
       </c>
     </row>
     <row r="9">
@@ -737,16 +737,16 @@
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="n">
-        <v>1.314848237576127</v>
+        <v>1.194115878602847</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.687902505414355</v>
+        <v>1.707978156282298</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.509850981149257</v>
+        <v>1.474483934131385</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.165538171496751</v>
+        <v>2.092031208952924</v>
       </c>
     </row>
     <row r="10">
@@ -787,22 +787,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2573519746437406</v>
+        <v>-0.2544688134272181</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3309489568803864</v>
+        <v>-0.3369397102433953</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8122850433765362</v>
+        <v>-0.9233709820011128</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.142560891451731</v>
+        <v>1.207544920175953</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.4222003245258886</v>
+        <v>-0.3932629941040251</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6473990934862551</v>
+        <v>0.653643535340134</v>
       </c>
     </row>
     <row r="12">
@@ -813,22 +813,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8630850901196206</v>
+        <v>0.9198126542377323</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7755922474011275</v>
+        <v>0.8360623492480275</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.871999858859128</v>
+        <v>1.797752726690684</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.931996241563333</v>
+        <v>3.927093717307969</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.064281185131134</v>
+        <v>1.047664326265308</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.224793258149228</v>
+        <v>2.253008635518235</v>
       </c>
     </row>
     <row r="13">
@@ -867,16 +867,16 @@
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>-0.2991001700347417</v>
+        <v>-0.3352095972089294</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.362323603222388</v>
+        <v>0.394419426032225</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2931560094596161</v>
+        <v>-0.2871122825613205</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3465169641505227</v>
+        <v>0.3509776969270416</v>
       </c>
     </row>
     <row r="15">
@@ -889,16 +889,16 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>1.391410330781638</v>
+        <v>1.184624578003765</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.685417033779907</v>
+        <v>2.822187875758577</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.29120567772115</v>
+        <v>1.138424438177026</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.633395011389429</v>
+        <v>2.89404216305977</v>
       </c>
     </row>
     <row r="16">
@@ -928,7 +928,7 @@
         <v>0.1889739457190433</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.4578522418830522</v>
+        <v>0.4578522418830526</v>
       </c>
     </row>
     <row r="17">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5754322016958903</v>
+        <v>-0.4807037205712035</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8341653097687948</v>
+        <v>-0.7913877541046953</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.024484491395546</v>
+        <v>-1.225539493709664</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.2545441579911436</v>
+        <v>-0.2132655757507889</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.5858403430822253</v>
+        <v>-0.6117734686738872</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.2610067878528871</v>
+        <v>-0.2979445956035183</v>
       </c>
     </row>
     <row r="18">
@@ -965,22 +965,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.668112071352824</v>
+        <v>0.6568249361255056</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1148941293820131</v>
+        <v>0.1162278284880063</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.947634461984483</v>
+        <v>1.843828680845344</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.489918366607391</v>
+        <v>2.458934980254703</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.992489710456005</v>
+        <v>1.033513288092132</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.125503749002387</v>
+        <v>1.150797301598728</v>
       </c>
     </row>
     <row r="19">
@@ -1000,13 +1000,13 @@
         <v>0.1890933929085488</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.5254943686654961</v>
+        <v>0.5254943686654959</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1510922016652576</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3660711163132223</v>
+        <v>0.3660711163132225</v>
       </c>
     </row>
     <row r="20">
@@ -1019,16 +1019,16 @@
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.384667609532084</v>
+        <v>-0.4209800630474542</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1042007157563767</v>
+        <v>-0.120906187508994</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3832949652643095</v>
+        <v>-0.4109619301800568</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.170638585507932</v>
+        <v>-0.1909502536329339</v>
       </c>
     </row>
     <row r="21">
@@ -1041,16 +1041,16 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>1.293988964008921</v>
+        <v>1.337822666746748</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.732988368080105</v>
+        <v>1.710895452989272</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.082121436451295</v>
+        <v>1.201465172735334</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.3505645230161</v>
+        <v>1.277312336980036</v>
       </c>
     </row>
     <row r="22">
@@ -1068,7 +1068,7 @@
         <v>-0.2276594316092203</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2771929031198965</v>
+        <v>0.2771929031198966</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-0.492663825782204</v>
@@ -1080,7 +1080,7 @@
         <v>-0.3372934494011073</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.659634832352842</v>
+        <v>0.6596348323528418</v>
       </c>
     </row>
     <row r="23">
@@ -1091,22 +1091,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9200276498664171</v>
+        <v>-1.326012764473506</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4159181282438972</v>
+        <v>-0.4553052612973655</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.957933159596746</v>
+        <v>-2.043487942596009</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4247910265248678</v>
+        <v>-0.4791503244353182</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.051149912640615</v>
+        <v>-1.112419437921275</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.1584807788696403</v>
+        <v>-0.1845210217737851</v>
       </c>
     </row>
     <row r="24">
@@ -1120,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7742651371516294</v>
+        <v>0.8214795500951542</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.771001803739563</v>
+        <v>0.6933443089194229</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.186458308089489</v>
+        <v>2.249773631979352</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3046994898945765</v>
+        <v>0.3293298722805224</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.280959996234358</v>
+        <v>1.311924497772443</v>
       </c>
     </row>
     <row r="25">
@@ -1158,7 +1158,7 @@
         <v>-0.434195549714107</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8491434065872339</v>
+        <v>0.8491434065872336</v>
       </c>
     </row>
     <row r="26">
@@ -1171,16 +1171,16 @@
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>-0.87966892405917</v>
+        <v>-0.8954852562502046</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1846109365181416</v>
+        <v>-0.2316448911723183</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8964106943359907</v>
+        <v>-0.9186271899052854</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1508011449304973</v>
+        <v>-0.1872493756740992</v>
       </c>
     </row>
     <row r="27">
@@ -1193,16 +1193,16 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>1.756658606510736</v>
+        <v>1.428381006369257</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4.003578878642728</v>
+        <v>4.428534209086065</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.180569380113591</v>
+        <v>1.230219896846718</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.601413576661345</v>
+        <v>3.957121685664041</v>
       </c>
     </row>
     <row r="28">
@@ -1243,22 +1243,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.0483952252983598</v>
+        <v>-0.04850985591178397</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.06132906542822773</v>
+        <v>-0.07211589238906617</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.06860768592166189</v>
+        <v>0.08079391137365795</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8569730654517925</v>
+        <v>0.819053539260977</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1545874352378899</v>
+        <v>0.1501963235309773</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.4666815433746475</v>
+        <v>0.4519226565066463</v>
       </c>
     </row>
     <row r="30">
@@ -1269,22 +1269,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4833524906204608</v>
+        <v>0.5028811700582831</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4666413018723496</v>
+        <v>0.4636580116201953</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.774711149665589</v>
+        <v>1.798443248956202</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.382433693133918</v>
+        <v>2.317490525523398</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.070600368104549</v>
+        <v>1.062423190538416</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.312716798809264</v>
+        <v>1.327383737613009</v>
       </c>
     </row>
     <row r="31">
@@ -1321,22 +1321,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2354440425589053</v>
+        <v>-0.2021622321014899</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3288113214872376</v>
+        <v>-0.3216400318732743</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.01727319793628392</v>
+        <v>0.02992900681085008</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2785284258852914</v>
+        <v>0.2618739492399296</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.0895489626532288</v>
+        <v>0.08718426463247562</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2495311005300202</v>
+        <v>0.2647083518816441</v>
       </c>
     </row>
     <row r="33">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>4.187891116675396</v>
+        <v>5.358786580122361</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.887249624904014</v>
+        <v>4.373859961694895</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7881763048305921</v>
+        <v>0.8243554349445779</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.102957453440377</v>
+        <v>1.064929531448261</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.8599049226240194</v>
+        <v>0.854557120167545</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.062349136895304</v>
+        <v>1.122682987091864</v>
       </c>
     </row>
     <row r="34">
